--- a/Data/PlayerUseCases.xlsx
+++ b/Data/PlayerUseCases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yashdeshmukh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Github\ProjectPyxis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A66037-8156-F04F-8DFE-87666BB98500}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47DD63B-10DC-4F40-A1DC-C459DE615FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,18 +27,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
-    <t>Preconditions</t>
-  </si>
-  <si>
     <t>ActionType</t>
   </si>
   <si>
     <t>Use</t>
   </si>
   <si>
-    <t>Knife</t>
-  </si>
-  <si>
     <t>self</t>
   </si>
   <si>
@@ -51,32 +45,7 @@
     <t>Object2</t>
   </si>
   <si>
-    <t>Gun</t>
-  </si>
-  <si>
-    <t>Batteries</t>
-  </si>
-  <si>
     <t>Postcondition</t>
-  </si>
-  <si>
-    <t>EscapePod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">playerCharacter.hasObject("Knife")
-</t>
-  </si>
-  <si>
-    <t>playerCharacter.hasObject("Gun")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">playerCharacter.getRoom().getRoomName()=="Pod room"  
-playerCharacter.hasObect("Batteries")
-</t>
-  </si>
-  <si>
-    <t>variableMap["ESCAPEPOD_ACTIVE"]=True
-playerCharacter.removeObject("Batteries")</t>
   </si>
   <si>
     <t xml:space="preserve">variableMap["ESCAPEPOD_ACTIVE"]==True
@@ -103,12 +72,43 @@
 displayCD("game-end",{})</t>
   </si>
   <si>
-    <t>playerCharacter.hasObject("Knife")
+    <t>knife</t>
+  </si>
+  <si>
+    <t>gun</t>
+  </si>
+  <si>
+    <t>batteries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playerCharacter.hasObject("knife")
+</t>
+  </si>
+  <si>
+    <t>playerCharacter.hasObject("knife")
 playerCharacter.getRoom().getRoomName()==npcCharacter.getRoom().getRoomName()</t>
   </si>
   <si>
-    <t>playerCharacter.hasObject("Gun")
+    <t>playerCharacter.hasObject("gun")</t>
+  </si>
+  <si>
+    <t>playerCharacter.hasObject("gun")
 playerCharacter.getRoom().getRoomName()==npcCharacter.getRoom().getRoomName()</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>escapepod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playerCharacter.getRoom().getRoomName()=="Pod room"  
+playerCharacter.hasObject("batteries")
+</t>
+  </si>
+  <si>
+    <t>variableMap["ESCAPEPOD_ACTIVE"]=True
+playerCharacter.removeObject("batteries")</t>
   </si>
 </sst>
 </file>
@@ -448,137 +448,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="87.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="79.77734375" customWidth="1"/>
     <col min="5" max="5" width="81.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E7" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
